--- a/0914_Pilot_project/2021-09-08_앱스토어_사용자_수_순위_모바일인덱스.xlsx
+++ b/0914_Pilot_project/2021-09-08_앱스토어_사용자_수_순위_모바일인덱스.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jypark\Desktop\Studying\KDT_ML\210914_pilot_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jypark\Desktop\Studying\KDT_ML\LikeLion_13th_ML_Course\0914_Pilot_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C53F2C7-1779-4E19-91EA-DB3993BD655E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D2965F-7CBB-45B6-926A-18598A116A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13680" yWindow="1160" windowWidth="21670" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,15 +28,6 @@
     <t>개발사</t>
   </si>
   <si>
-    <t>구글스토어 순위</t>
-  </si>
-  <si>
-    <t>애플스토어 순위</t>
-  </si>
-  <si>
-    <t>원스토어 순위</t>
-  </si>
-  <si>
     <t>카카오톡 KakaoTalk</t>
   </si>
   <si>
@@ -1817,6 +1808,18 @@
   </si>
   <si>
     <t>자동차브랜드/구매정보</t>
+  </si>
+  <si>
+    <t>상승률</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>업종 대분류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>업종 소분류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2227,7 +2230,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2245,13 +2250,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>596</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>597</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>598</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -2259,19 +2264,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -2279,19 +2284,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E3" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F3" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -2299,19 +2304,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D4" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E4" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="F4" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -2319,19 +2324,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D5" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E5" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F5" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -2339,19 +2344,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D6" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E6" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F6" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
@@ -2359,19 +2364,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
@@ -2379,19 +2384,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D8" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E8" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F8" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
@@ -2399,19 +2404,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E9" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F9" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
@@ -2419,19 +2424,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D10" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E10" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F10" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
@@ -2439,19 +2444,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D11" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E11" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F11" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
@@ -2459,19 +2464,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D12" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E12" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F12" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
@@ -2479,19 +2484,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E13" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F13" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
@@ -2499,19 +2504,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D14" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E14" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F14" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
@@ -2519,19 +2524,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D15" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E15" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="F15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
@@ -2539,19 +2544,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D16" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E16" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F16" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
@@ -2559,19 +2564,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D17" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E17" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="F17" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
@@ -2579,19 +2584,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D18" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E18" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F18" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
@@ -2599,19 +2604,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D19" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E19" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F19" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
@@ -2619,19 +2624,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D20" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E20" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F20" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
@@ -2639,19 +2644,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D21" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E21" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F21" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
@@ -2659,19 +2664,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D22" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E22" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="F22" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
@@ -2679,19 +2684,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D23" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E23" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F23" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
@@ -2699,19 +2704,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D24" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E24" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F24" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
@@ -2719,19 +2724,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D25" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E25" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F25" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
@@ -2739,19 +2744,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D26" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E26" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F26" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
@@ -2759,19 +2764,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D27" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E27" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F27" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
@@ -2779,19 +2784,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D28" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E28" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F28" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
@@ -2799,19 +2804,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D29" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E29" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="F29" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
@@ -2819,19 +2824,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D30" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E30" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="F30" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
@@ -2839,19 +2844,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D31" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E31" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F31" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
@@ -2859,19 +2864,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D32" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E32" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F32" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
@@ -2879,19 +2884,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D33" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E33" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F33" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
@@ -2899,19 +2904,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D34" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E34" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F34" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
@@ -2919,19 +2924,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D35" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E35" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F35" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
@@ -2939,19 +2944,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D36" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E36" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F36" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
@@ -2959,19 +2964,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D37" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E37" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F37" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
@@ -2979,19 +2984,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D38" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E38" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F38" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
@@ -2999,19 +3004,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D39" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E39" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F39" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
@@ -3019,19 +3024,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D40" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E40" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F40" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
@@ -3039,19 +3044,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D41" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E41" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F41" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
@@ -3059,19 +3064,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D42" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E42" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F42" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
@@ -3079,19 +3084,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D43" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E43" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F43" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
@@ -3099,19 +3104,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D44" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E44" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F44" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
@@ -3119,19 +3124,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D45" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E45" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F45" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
@@ -3139,19 +3144,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D46" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E46" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="F46" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
@@ -3159,19 +3164,19 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D47" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E47" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F47" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
@@ -3179,19 +3184,19 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D48" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E48" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F48" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
@@ -3199,19 +3204,19 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D49" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E49" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="F49" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
@@ -3219,19 +3224,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D50" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E50" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F50" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
@@ -3239,19 +3244,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D51" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E51" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="F51" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
@@ -3259,19 +3264,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D52" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E52" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F52" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
@@ -3279,19 +3284,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D53" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E53" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F53" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
@@ -3299,19 +3304,19 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D54" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E54" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="F54" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
@@ -3319,19 +3324,19 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D55" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E55" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F55" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.45">
@@ -3339,19 +3344,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D56" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E56" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F56" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
@@ -3359,19 +3364,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D57" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E57" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F57" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
@@ -3379,19 +3384,19 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D58" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E58" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F58" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
@@ -3399,19 +3404,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C59" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D59" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E59" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F59" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
@@ -3419,19 +3424,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C60" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D60" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E60" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F60" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
@@ -3439,19 +3444,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C61" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D61" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E61" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="F61" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
@@ -3459,19 +3464,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C62" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D62" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E62" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F62" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
@@ -3479,19 +3484,19 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C63" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D63" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E63" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F63" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
@@ -3499,19 +3504,19 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C64" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D64" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E64" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F64" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.45">
@@ -3519,19 +3524,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C65" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D65" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E65" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F65" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
@@ -3539,19 +3544,19 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C66" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D66" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E66" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F66" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.45">
@@ -3559,19 +3564,19 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C67" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D67" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E67" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="F67" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.45">
@@ -3579,19 +3584,19 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C68" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D68" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E68" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F68" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.45">
@@ -3599,19 +3604,19 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C69" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D69" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E69" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F69" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.45">
@@ -3619,19 +3624,19 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C70" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D70" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E70" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F70" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.45">
@@ -3639,19 +3644,19 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C71" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D71" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E71" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F71" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.45">
@@ -3659,19 +3664,19 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C72" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D72" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E72" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F72" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.45">
@@ -3679,19 +3684,19 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C73" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D73" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E73" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F73" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.45">
@@ -3699,19 +3704,19 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C74" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D74" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E74" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F74" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.45">
@@ -3719,19 +3724,19 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C75" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D75" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E75" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F75" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.45">
@@ -3739,19 +3744,19 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C76" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D76" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E76" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F76" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.45">
@@ -3759,19 +3764,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C77" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D77" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E77" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F77" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.45">
@@ -3779,19 +3784,19 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C78" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D78" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E78" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F78" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.45">
@@ -3799,19 +3804,19 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C79" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D79" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E79" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F79" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.45">
@@ -3819,19 +3824,19 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C80" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D80" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E80" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F80" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.45">
@@ -3839,19 +3844,19 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C81" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D81" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E81" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F81" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.45">
@@ -3859,19 +3864,19 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C82" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D82" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E82" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F82" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.45">
@@ -3879,19 +3884,19 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C83" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D83" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E83" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="F83" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.45">
@@ -3899,19 +3904,19 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C84" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D84" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E84" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F84" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.45">
@@ -3919,19 +3924,19 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C85" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D85" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E85" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F85" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.45">
@@ -3939,19 +3944,19 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C86" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D86" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E86" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F86" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.45">
@@ -3959,19 +3964,19 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C87" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D87" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E87" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F87" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.45">
@@ -3979,19 +3984,19 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C88" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D88" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E88" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="F88" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.45">
@@ -3999,19 +4004,19 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C89" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D89" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E89" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F89" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.45">
@@ -4019,19 +4024,19 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C90" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D90" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E90" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F90" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.45">
@@ -4039,19 +4044,19 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C91" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D91" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E91" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F91" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.45">
@@ -4059,19 +4064,19 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C92" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D92" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E92" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F92" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.45">
@@ -4079,19 +4084,19 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C93" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D93" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="E93" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F93" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.45">
@@ -4099,19 +4104,19 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C94" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D94" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E94" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F94" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.45">
@@ -4119,19 +4124,19 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C95" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D95" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E95" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F95" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.45">
@@ -4139,19 +4144,19 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C96" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D96" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E96" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F96" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.45">
@@ -4159,19 +4164,19 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C97" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D97" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E97" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F97" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.45">
@@ -4179,19 +4184,19 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C98" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D98" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E98" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F98" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.45">
@@ -4199,19 +4204,19 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C99" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D99" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="E99" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="F99" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.45">
@@ -4219,19 +4224,19 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C100" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D100" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E100" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F100" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.45">
@@ -4239,19 +4244,19 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C101" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D101" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E101" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="F101" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.45">
@@ -4259,19 +4264,19 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C102" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D102" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="E102" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="F102" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.45">
@@ -4279,19 +4284,19 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C103" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D103" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="E103" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F103" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.45">
@@ -4299,19 +4304,19 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C104" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D104" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E104" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="F104" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.45">
@@ -4319,19 +4324,19 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C105" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D105" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E105" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F105" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.45">
@@ -4339,19 +4344,19 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C106" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D106" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="E106" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F106" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.45">
@@ -4359,19 +4364,19 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C107" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D107" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E107" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="F107" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.45">
@@ -4379,19 +4384,19 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C108" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D108" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E108" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F108" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.45">
@@ -4399,19 +4404,19 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C109" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D109" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E109" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="F109" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.45">
@@ -4419,19 +4424,19 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C110" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D110" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E110" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F110" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.45">
@@ -4439,19 +4444,19 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C111" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D111" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E111" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="F111" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.45">
@@ -4459,19 +4464,19 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C112" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D112" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E112" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F112" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.45">
@@ -4479,19 +4484,19 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C113" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D113" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E113" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="F113" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.45">
@@ -4499,19 +4504,19 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C114" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D114" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E114" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F114" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.45">
@@ -4519,19 +4524,19 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C115" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D115" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E115" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F115" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.45">
@@ -4539,19 +4544,19 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C116" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D116" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E116" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="F116" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.45">
@@ -4559,19 +4564,19 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C117" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D117" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E117" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F117" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.45">
@@ -4579,19 +4584,19 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C118" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D118" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E118" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F118" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.45">
@@ -4599,19 +4604,19 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C119" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D119" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E119" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="F119" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.45">
@@ -4619,19 +4624,19 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C120" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D120" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E120" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F120" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.45">
@@ -4639,19 +4644,19 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C121" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D121" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E121" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F121" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.45">
@@ -4659,19 +4664,19 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C122" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D122" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E122" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="F122" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.45">
@@ -4679,19 +4684,19 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C123" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D123" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E123" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F123" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.45">
@@ -4699,19 +4704,19 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C124" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D124" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E124" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F124" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.45">
@@ -4719,19 +4724,19 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C125" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D125" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E125" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="F125" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.45">
@@ -4739,19 +4744,19 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C126" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D126" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E126" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F126" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.45">
@@ -4759,19 +4764,19 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C127" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D127" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E127" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F127" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.45">
@@ -4779,19 +4784,19 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C128" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D128" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E128" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F128" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.45">
@@ -4799,19 +4804,19 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C129" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D129" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E129" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F129" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.45">
@@ -4819,19 +4824,19 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C130" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D130" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E130" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F130" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.45">
@@ -4839,19 +4844,19 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C131" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D131" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E131" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F131" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.45">
@@ -4859,19 +4864,19 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C132" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D132" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E132" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="F132" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.45">
@@ -4879,19 +4884,19 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C133" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D133" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E133" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F133" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.45">
@@ -4899,19 +4904,19 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C134" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D134" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="E134" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F134" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.45">
@@ -4919,19 +4924,19 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C135" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D135" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E135" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F135" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.45">
@@ -4939,19 +4944,19 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C136" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D136" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E136" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F136" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.45">
@@ -4959,19 +4964,19 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C137" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D137" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E137" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="F137" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.45">
@@ -4979,19 +4984,19 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C138" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D138" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E138" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F138" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.45">
@@ -4999,19 +5004,19 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C139" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D139" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E139" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="F139" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.45">
@@ -5019,19 +5024,19 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C140" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D140" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E140" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F140" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.45">
@@ -5039,19 +5044,19 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C141" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D141" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="E141" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F141" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.45">
@@ -5059,19 +5064,19 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C142" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D142" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E142" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F142" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.45">
@@ -5079,19 +5084,19 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C143" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D143" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E143" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F143" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.45">
@@ -5099,19 +5104,19 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C144" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D144" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E144" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F144" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.45">
@@ -5119,19 +5124,19 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C145" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D145" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E145" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F145" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.45">
@@ -5139,19 +5144,19 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C146" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D146" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E146" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F146" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.45">
@@ -5159,19 +5164,19 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C147" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D147" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E147" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F147" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.45">
@@ -5179,19 +5184,19 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C148" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D148" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E148" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F148" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.45">
@@ -5199,19 +5204,19 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
+        <v>149</v>
+      </c>
+      <c r="C149" t="s">
+        <v>297</v>
+      </c>
+      <c r="D149" t="s">
+        <v>468</v>
+      </c>
+      <c r="E149" t="s">
+        <v>519</v>
+      </c>
+      <c r="F149" t="s">
         <v>152</v>
-      </c>
-      <c r="C149" t="s">
-        <v>300</v>
-      </c>
-      <c r="D149" t="s">
-        <v>471</v>
-      </c>
-      <c r="E149" t="s">
-        <v>522</v>
-      </c>
-      <c r="F149" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.45">
@@ -5219,19 +5224,19 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C150" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D150" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E150" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="F150" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.45">
@@ -5239,19 +5244,19 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C151" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D151" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E151" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F151" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.45">
@@ -5259,19 +5264,19 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C152" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D152" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E152" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="F152" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.45">
@@ -5279,19 +5284,19 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C153" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D153" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E153" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F153" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.45">
@@ -5299,19 +5304,19 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C154" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D154" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E154" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F154" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.45">
@@ -5319,19 +5324,19 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C155" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D155" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E155" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F155" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.45">
@@ -5339,19 +5344,19 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C156" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D156" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E156" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F156" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.45">
@@ -5359,19 +5364,19 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C157" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D157" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E157" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F157" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.45">
@@ -5379,19 +5384,19 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C158" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D158" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E158" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F158" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.45">
@@ -5399,19 +5404,19 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C159" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D159" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E159" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="F159" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.45">
@@ -5419,19 +5424,19 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C160" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D160" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E160" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="F160" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.45">
@@ -5439,19 +5444,19 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C161" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D161" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E161" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F161" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.45">
@@ -5459,19 +5464,19 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C162" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D162" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E162" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F162" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.45">
@@ -5479,19 +5484,19 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C163" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D163" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E163" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F163" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.45">
@@ -5499,19 +5504,19 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C164" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D164" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E164" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F164" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.45">
@@ -5519,19 +5524,19 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C165" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D165" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="E165" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F165" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.45">
@@ -5539,19 +5544,19 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C166" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D166" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E166" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="F166" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.45">
@@ -5559,19 +5564,19 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C167" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D167" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E167" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F167" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.45">
@@ -5579,19 +5584,19 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C168" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D168" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E168" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F168" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.45">
@@ -5599,19 +5604,19 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C169" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D169" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E169" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F169" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.45">
@@ -5619,19 +5624,19 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C170" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D170" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E170" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F170" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.45">
@@ -5639,19 +5644,19 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C171" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D171" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E171" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F171" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.45">
@@ -5659,19 +5664,19 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C172" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D172" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E172" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F172" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.45">
@@ -5679,19 +5684,19 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C173" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D173" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E173" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F173" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.45">
@@ -5699,19 +5704,19 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C174" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D174" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E174" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F174" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.45">
@@ -5719,19 +5724,19 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C175" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D175" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E175" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F175" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.45">
@@ -5739,19 +5744,19 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C176" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D176" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E176" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F176" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.45">
@@ -5759,19 +5764,19 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C177" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D177" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E177" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F177" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.45">
@@ -5779,19 +5784,19 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C178" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D178" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E178" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F178" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.45">
@@ -5799,19 +5804,19 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C179" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D179" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E179" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F179" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.45">
@@ -5819,19 +5824,19 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C180" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D180" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="E180" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="F180" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.45">
@@ -5839,19 +5844,19 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C181" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D181" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E181" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F181" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.45">
@@ -5859,19 +5864,19 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C182" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D182" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E182" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F182" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.45">
@@ -5879,19 +5884,19 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C183" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D183" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E183" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="F183" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.45">
@@ -5899,19 +5904,19 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C184" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D184" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E184" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F184" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.45">
@@ -5919,19 +5924,19 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C185" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D185" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E185" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="F185" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.45">
@@ -5939,19 +5944,19 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C186" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D186" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E186" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F186" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.45">
@@ -5959,19 +5964,19 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C187" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D187" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E187" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F187" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.45">
@@ -5979,19 +5984,19 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C188" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D188" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E188" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F188" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.45">
@@ -5999,19 +6004,19 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C189" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D189" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E189" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F189" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.45">
@@ -6019,19 +6024,19 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C190" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D190" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E190" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F190" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.45">
@@ -6039,19 +6044,19 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C191" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D191" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="E191" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F191" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.45">
@@ -6059,19 +6064,19 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C192" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D192" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="E192" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F192" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.45">
@@ -6079,19 +6084,19 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C193" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D193" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E193" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F193" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.45">
@@ -6099,19 +6104,19 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C194" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D194" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="E194" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F194" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.45">
@@ -6119,19 +6124,19 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C195" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D195" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E195" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F195" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.45">
@@ -6139,19 +6144,19 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C196" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D196" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E196" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F196" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.45">
@@ -6159,19 +6164,19 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C197" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D197" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E197" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="F197" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.45">
@@ -6179,19 +6184,19 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C198" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D198" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E198" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F198" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.45">
@@ -6199,19 +6204,19 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C199" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D199" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E199" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="F199" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.45">
@@ -6219,19 +6224,19 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C200" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D200" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E200" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="F200" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.45">
@@ -6239,19 +6244,19 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C201" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D201" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E201" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F201" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
   </sheetData>
